--- a/src/users.xlsx
+++ b/src/users.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,19 +38,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>keli</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>keqing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kl123456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kq123456</t>
+    <t>deng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feng</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,7 +400,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -436,8 +428,8 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
+      <c r="B2">
+        <v>123456</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -450,8 +442,8 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
+      <c r="B3">
+        <v>1234567</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
